--- a/exports/btc-usd_predictions_last90.xlsx
+++ b/exports/btc-usd_predictions_last90.xlsx
@@ -458,1441 +458,1441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118359.58</v>
+        <v>117491.35</v>
       </c>
       <c r="C2" t="n">
-        <v>121523.59</v>
+        <v>116967.56</v>
       </c>
       <c r="D2" t="n">
-        <v>3164.01</v>
+        <v>-523.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117398.35</v>
+        <v>117453.06</v>
       </c>
       <c r="C3" t="n">
-        <v>117913.7</v>
+        <v>117606.73</v>
       </c>
       <c r="D3" t="n">
-        <v>515.35</v>
+        <v>153.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117491.35</v>
+        <v>116252.31</v>
       </c>
       <c r="C4" t="n">
-        <v>117053.88</v>
+        <v>116726.6</v>
       </c>
       <c r="D4" t="n">
-        <v>-437.47</v>
+        <v>474.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117453.06</v>
+        <v>112831.18</v>
       </c>
       <c r="C5" t="n">
-        <v>117639.66</v>
+        <v>114986.05</v>
       </c>
       <c r="D5" t="n">
-        <v>186.6</v>
+        <v>2154.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116252.31</v>
+        <v>114274.74</v>
       </c>
       <c r="C6" t="n">
-        <v>116760.85</v>
+        <v>114093.02</v>
       </c>
       <c r="D6" t="n">
-        <v>508.54</v>
+        <v>-181.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112831.18</v>
+        <v>112419.03</v>
       </c>
       <c r="C7" t="n">
-        <v>115020.33</v>
+        <v>113835.69</v>
       </c>
       <c r="D7" t="n">
-        <v>2189.15</v>
+        <v>1416.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114274.74</v>
+        <v>116874.09</v>
       </c>
       <c r="C8" t="n">
-        <v>114132.94</v>
+        <v>114069.54</v>
       </c>
       <c r="D8" t="n">
-        <v>-141.8</v>
+        <v>-2804.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112419.03</v>
+        <v>115374.33</v>
       </c>
       <c r="C9" t="n">
-        <v>113878.03</v>
+        <v>116097.52</v>
       </c>
       <c r="D9" t="n">
-        <v>1458.99</v>
+        <v>723.1900000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>116874.09</v>
+        <v>113458.43</v>
       </c>
       <c r="C10" t="n">
-        <v>114096.39</v>
+        <v>115058.5</v>
       </c>
       <c r="D10" t="n">
-        <v>-2777.7</v>
+        <v>1600.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115374.33</v>
+        <v>110124.35</v>
       </c>
       <c r="C11" t="n">
-        <v>116105.92</v>
+        <v>112420</v>
       </c>
       <c r="D11" t="n">
-        <v>731.59</v>
+        <v>2295.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113458.43</v>
+        <v>111802.66</v>
       </c>
       <c r="C12" t="n">
-        <v>115064.01</v>
+        <v>110866.47</v>
       </c>
       <c r="D12" t="n">
-        <v>1605.58</v>
+        <v>-936.1900000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110124.35</v>
+        <v>111222.06</v>
       </c>
       <c r="C13" t="n">
-        <v>112480.19</v>
+        <v>111503.26</v>
       </c>
       <c r="D13" t="n">
-        <v>2355.84</v>
+        <v>281.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111802.66</v>
+        <v>112544.8</v>
       </c>
       <c r="C14" t="n">
-        <v>110940.18</v>
+        <v>111336.79</v>
       </c>
       <c r="D14" t="n">
-        <v>-862.48</v>
+        <v>-1208.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111222.06</v>
+        <v>108410.84</v>
       </c>
       <c r="C15" t="n">
-        <v>111547.69</v>
+        <v>111083.16</v>
       </c>
       <c r="D15" t="n">
-        <v>325.62</v>
+        <v>2672.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112544.8</v>
+        <v>108808.07</v>
       </c>
       <c r="C16" t="n">
-        <v>111361.25</v>
+        <v>109086.51</v>
       </c>
       <c r="D16" t="n">
-        <v>-1183.56</v>
+        <v>278.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108410.84</v>
+        <v>108236.71</v>
       </c>
       <c r="C17" t="n">
-        <v>111105.39</v>
+        <v>108864.28</v>
       </c>
       <c r="D17" t="n">
-        <v>2694.55</v>
+        <v>627.5700000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>108808.07</v>
+        <v>109250.59</v>
       </c>
       <c r="C18" t="n">
-        <v>109123.77</v>
+        <v>108709.09</v>
       </c>
       <c r="D18" t="n">
-        <v>315.7</v>
+        <v>-541.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108236.71</v>
+        <v>111200.59</v>
       </c>
       <c r="C19" t="n">
-        <v>108916.29</v>
+        <v>109823.85</v>
       </c>
       <c r="D19" t="n">
-        <v>679.58</v>
+        <v>-1376.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109250.59</v>
+        <v>111723.21</v>
       </c>
       <c r="C20" t="n">
-        <v>108739.75</v>
+        <v>111330.71</v>
       </c>
       <c r="D20" t="n">
-        <v>-510.85</v>
+        <v>-392.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111200.59</v>
+        <v>110723.6</v>
       </c>
       <c r="C21" t="n">
-        <v>109843.94</v>
+        <v>111623.52</v>
       </c>
       <c r="D21" t="n">
-        <v>-1356.65</v>
+        <v>899.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111723.21</v>
+        <v>110650.98</v>
       </c>
       <c r="C22" t="n">
-        <v>111335.99</v>
+        <v>110598.13</v>
       </c>
       <c r="D22" t="n">
-        <v>-387.22</v>
+        <v>-52.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110723.6</v>
+        <v>110224.7</v>
       </c>
       <c r="C23" t="n">
-        <v>111630.99</v>
+        <v>110392.09</v>
       </c>
       <c r="D23" t="n">
-        <v>907.39</v>
+        <v>167.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110650.98</v>
+        <v>111167.62</v>
       </c>
       <c r="C24" t="n">
-        <v>110641.41</v>
+        <v>110246.65</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.57</v>
+        <v>-920.97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110224.7</v>
+        <v>112071.43</v>
       </c>
       <c r="C25" t="n">
-        <v>110436.14</v>
+        <v>111035.52</v>
       </c>
       <c r="D25" t="n">
-        <v>211.44</v>
+        <v>-1035.91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>111167.62</v>
+        <v>111530.55</v>
       </c>
       <c r="C26" t="n">
-        <v>110293.6</v>
+        <v>111677.31</v>
       </c>
       <c r="D26" t="n">
-        <v>-874.02</v>
+        <v>146.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>112071.43</v>
+        <v>113955.36</v>
       </c>
       <c r="C27" t="n">
-        <v>111076.24</v>
+        <v>112228.04</v>
       </c>
       <c r="D27" t="n">
-        <v>-995.1900000000001</v>
+        <v>-1727.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111530.55</v>
+        <v>115507.54</v>
       </c>
       <c r="C28" t="n">
-        <v>111701.9</v>
+        <v>114158.44</v>
       </c>
       <c r="D28" t="n">
-        <v>171.36</v>
+        <v>-1349.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113955.36</v>
+        <v>116101.58</v>
       </c>
       <c r="C29" t="n">
-        <v>112262.19</v>
+        <v>115343.07</v>
       </c>
       <c r="D29" t="n">
-        <v>-1693.17</v>
+        <v>-758.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115507.54</v>
+        <v>115950.51</v>
       </c>
       <c r="C30" t="n">
-        <v>114186.27</v>
+        <v>115350.29</v>
       </c>
       <c r="D30" t="n">
-        <v>-1321.27</v>
+        <v>-600.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116101.58</v>
+        <v>115407.66</v>
       </c>
       <c r="C31" t="n">
-        <v>115364.02</v>
+        <v>115373.33</v>
       </c>
       <c r="D31" t="n">
-        <v>-737.5599999999999</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115950.51</v>
+        <v>115444.88</v>
       </c>
       <c r="C32" t="n">
-        <v>115383.59</v>
+        <v>115155.89</v>
       </c>
       <c r="D32" t="n">
-        <v>-566.91</v>
+        <v>-288.98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115407.66</v>
+        <v>116843.19</v>
       </c>
       <c r="C33" t="n">
-        <v>115415.93</v>
+        <v>115381.3</v>
       </c>
       <c r="D33" t="n">
-        <v>8.279999999999999</v>
+        <v>-1461.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115444.88</v>
+        <v>116468.51</v>
       </c>
       <c r="C34" t="n">
-        <v>115208.75</v>
+        <v>116273.98</v>
       </c>
       <c r="D34" t="n">
-        <v>-236.12</v>
+        <v>-194.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>116843.19</v>
+        <v>117137.2</v>
       </c>
       <c r="C35" t="n">
-        <v>115428.03</v>
+        <v>116460.71</v>
       </c>
       <c r="D35" t="n">
-        <v>-1415.16</v>
+        <v>-676.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116468.51</v>
+        <v>115688.86</v>
       </c>
       <c r="C36" t="n">
-        <v>116302.91</v>
+        <v>116556.04</v>
       </c>
       <c r="D36" t="n">
-        <v>-165.59</v>
+        <v>867.1799999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117137.2</v>
+        <v>115721.96</v>
       </c>
       <c r="C37" t="n">
-        <v>116478.86</v>
+        <v>115759.91</v>
       </c>
       <c r="D37" t="n">
-        <v>-658.34</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>115688.86</v>
+        <v>115306.09</v>
       </c>
       <c r="C38" t="n">
-        <v>116580.68</v>
+        <v>115456.6</v>
       </c>
       <c r="D38" t="n">
-        <v>891.8200000000001</v>
+        <v>150.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>115721.96</v>
+        <v>112748.51</v>
       </c>
       <c r="C39" t="n">
-        <v>115787.6</v>
+        <v>114283.18</v>
       </c>
       <c r="D39" t="n">
-        <v>65.64</v>
+        <v>1534.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115306.09</v>
+        <v>112014.5</v>
       </c>
       <c r="C40" t="n">
-        <v>115499.16</v>
+        <v>112486.02</v>
       </c>
       <c r="D40" t="n">
-        <v>193.07</v>
+        <v>471.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112748.51</v>
+        <v>113328.63</v>
       </c>
       <c r="C41" t="n">
-        <v>114337.23</v>
+        <v>112530</v>
       </c>
       <c r="D41" t="n">
-        <v>1588.72</v>
+        <v>-798.63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112014.5</v>
+        <v>109049.29</v>
       </c>
       <c r="C42" t="n">
-        <v>112528.35</v>
+        <v>112114.42</v>
       </c>
       <c r="D42" t="n">
-        <v>513.85</v>
+        <v>3065.14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113328.63</v>
+        <v>109712.83</v>
       </c>
       <c r="C43" t="n">
-        <v>112572.29</v>
+        <v>109483.06</v>
       </c>
       <c r="D43" t="n">
-        <v>-756.34</v>
+        <v>-229.77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109049.29</v>
+        <v>109681.95</v>
       </c>
       <c r="C44" t="n">
-        <v>112132.23</v>
+        <v>109861.96</v>
       </c>
       <c r="D44" t="n">
-        <v>3082.94</v>
+        <v>180.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109712.83</v>
+        <v>112122.64</v>
       </c>
       <c r="C45" t="n">
-        <v>109517.53</v>
+        <v>111062.28</v>
       </c>
       <c r="D45" t="n">
-        <v>-195.3</v>
+        <v>-1060.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109681.95</v>
+        <v>114400.38</v>
       </c>
       <c r="C46" t="n">
-        <v>109902.11</v>
+        <v>112809.57</v>
       </c>
       <c r="D46" t="n">
-        <v>220.16</v>
+        <v>-1590.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>112122.64</v>
+        <v>114056.09</v>
       </c>
       <c r="C47" t="n">
-        <v>111068.42</v>
+        <v>114211.88</v>
       </c>
       <c r="D47" t="n">
-        <v>-1054.22</v>
+        <v>155.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>114400.38</v>
+        <v>118648.93</v>
       </c>
       <c r="C48" t="n">
-        <v>112816.77</v>
+        <v>115811.35</v>
       </c>
       <c r="D48" t="n">
-        <v>-1583.62</v>
+        <v>-2837.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>114056.09</v>
+        <v>120681.26</v>
       </c>
       <c r="C49" t="n">
-        <v>114200.42</v>
+        <v>118830.35</v>
       </c>
       <c r="D49" t="n">
-        <v>144.34</v>
+        <v>-1850.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>118648.93</v>
+        <v>122266.53</v>
       </c>
       <c r="C50" t="n">
-        <v>115814.98</v>
+        <v>120675.03</v>
       </c>
       <c r="D50" t="n">
-        <v>-2833.95</v>
+        <v>-1591.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>120681.26</v>
+        <v>122425.43</v>
       </c>
       <c r="C51" t="n">
-        <v>118840.21</v>
+        <v>121344.69</v>
       </c>
       <c r="D51" t="n">
-        <v>-1841.04</v>
+        <v>-1080.74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>122266.53</v>
+        <v>123513.48</v>
       </c>
       <c r="C52" t="n">
-        <v>120668.15</v>
+        <v>122242.57</v>
       </c>
       <c r="D52" t="n">
-        <v>-1598.38</v>
+        <v>-1270.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>122425.43</v>
+        <v>124752.53</v>
       </c>
       <c r="C53" t="n">
-        <v>121362.14</v>
+        <v>123429.65</v>
       </c>
       <c r="D53" t="n">
-        <v>-1063.29</v>
+        <v>-1322.88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>123513.48</v>
+        <v>121451.38</v>
       </c>
       <c r="C54" t="n">
-        <v>122278.54</v>
+        <v>122986.74</v>
       </c>
       <c r="D54" t="n">
-        <v>-1234.93</v>
+        <v>1535.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>124752.53</v>
+        <v>123354.87</v>
       </c>
       <c r="C55" t="n">
-        <v>123456.45</v>
+        <v>121751.64</v>
       </c>
       <c r="D55" t="n">
-        <v>-1296.08</v>
+        <v>-1603.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>121451.38</v>
+        <v>121705.59</v>
       </c>
       <c r="C56" t="n">
-        <v>123013.67</v>
+        <v>122577.19</v>
       </c>
       <c r="D56" t="n">
-        <v>1562.28</v>
+        <v>871.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>123354.87</v>
+        <v>113214.37</v>
       </c>
       <c r="C57" t="n">
-        <v>121790.61</v>
+        <v>119066.98</v>
       </c>
       <c r="D57" t="n">
-        <v>-1564.25</v>
+        <v>5852.61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>121705.59</v>
+        <v>110807.88</v>
       </c>
       <c r="C58" t="n">
-        <v>122614.57</v>
+        <v>112391.95</v>
       </c>
       <c r="D58" t="n">
-        <v>908.98</v>
+        <v>1584.07</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>113214.37</v>
+        <v>115169.77</v>
       </c>
       <c r="C59" t="n">
-        <v>119096.01</v>
+        <v>112730.09</v>
       </c>
       <c r="D59" t="n">
-        <v>5881.64</v>
+        <v>-2439.67</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>110807.88</v>
+        <v>115271.08</v>
       </c>
       <c r="C60" t="n">
-        <v>112483.59</v>
+        <v>115834.38</v>
       </c>
       <c r="D60" t="n">
-        <v>1675.71</v>
+        <v>563.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>115169.77</v>
+        <v>113118.66</v>
       </c>
       <c r="C61" t="n">
-        <v>112816.15</v>
+        <v>114555.42</v>
       </c>
       <c r="D61" t="n">
-        <v>-2353.62</v>
+        <v>1436.75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>115271.08</v>
+        <v>110783.16</v>
       </c>
       <c r="C62" t="n">
-        <v>115817.06</v>
+        <v>112884.73</v>
       </c>
       <c r="D62" t="n">
-        <v>545.98</v>
+        <v>2101.56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>113118.66</v>
+        <v>108186.04</v>
       </c>
       <c r="C63" t="n">
-        <v>114534.69</v>
+        <v>111238.31</v>
       </c>
       <c r="D63" t="n">
-        <v>1416.02</v>
+        <v>3052.27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>110783.16</v>
+        <v>106467.79</v>
       </c>
       <c r="C64" t="n">
-        <v>112902.38</v>
+        <v>107936.24</v>
       </c>
       <c r="D64" t="n">
-        <v>2119.21</v>
+        <v>1468.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>108186.04</v>
+        <v>107198.27</v>
       </c>
       <c r="C65" t="n">
-        <v>111280.3</v>
+        <v>106415.22</v>
       </c>
       <c r="D65" t="n">
-        <v>3094.26</v>
+        <v>-783.05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>106467.79</v>
+        <v>108666.71</v>
       </c>
       <c r="C66" t="n">
-        <v>108004.13</v>
+        <v>107860.32</v>
       </c>
       <c r="D66" t="n">
-        <v>1536.35</v>
+        <v>-806.39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>107198.27</v>
+        <v>110588.93</v>
       </c>
       <c r="C67" t="n">
-        <v>106474.02</v>
+        <v>109724.35</v>
       </c>
       <c r="D67" t="n">
-        <v>-724.24</v>
+        <v>-864.58</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>108666.71</v>
+        <v>108476.89</v>
       </c>
       <c r="C68" t="n">
-        <v>107882.42</v>
+        <v>110111.64</v>
       </c>
       <c r="D68" t="n">
-        <v>-784.29</v>
+        <v>1634.75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>110588.93</v>
+        <v>107688.59</v>
       </c>
       <c r="C69" t="n">
-        <v>109722.13</v>
+        <v>108557.97</v>
       </c>
       <c r="D69" t="n">
-        <v>-866.8</v>
+        <v>869.38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>108476.89</v>
+        <v>110069.73</v>
       </c>
       <c r="C70" t="n">
-        <v>110115.18</v>
+        <v>108696.57</v>
       </c>
       <c r="D70" t="n">
-        <v>1638.29</v>
+        <v>-1373.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>107688.59</v>
+        <v>111033.92</v>
       </c>
       <c r="C71" t="n">
-        <v>108583.39</v>
+        <v>110269.15</v>
       </c>
       <c r="D71" t="n">
-        <v>894.8099999999999</v>
+        <v>-764.77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>110069.73</v>
+        <v>111641.73</v>
       </c>
       <c r="C72" t="n">
-        <v>108744.81</v>
+        <v>110806.24</v>
       </c>
       <c r="D72" t="n">
-        <v>-1324.92</v>
+        <v>-835.49</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>111033.92</v>
+        <v>114472.45</v>
       </c>
       <c r="C73" t="n">
-        <v>110293.14</v>
+        <v>112319.45</v>
       </c>
       <c r="D73" t="n">
-        <v>-740.79</v>
+        <v>-2152.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>111641.73</v>
+        <v>114119.33</v>
       </c>
       <c r="C74" t="n">
-        <v>110810.17</v>
+        <v>114457.04</v>
       </c>
       <c r="D74" t="n">
-        <v>-831.55</v>
+        <v>337.71</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>114472.45</v>
+        <v>112956.16</v>
       </c>
       <c r="C75" t="n">
-        <v>112339.66</v>
+        <v>113666.55</v>
       </c>
       <c r="D75" t="n">
-        <v>-2132.79</v>
+        <v>710.38</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>114119.33</v>
+        <v>110055.3</v>
       </c>
       <c r="C76" t="n">
-        <v>114461.3</v>
+        <v>111505.99</v>
       </c>
       <c r="D76" t="n">
-        <v>341.97</v>
+        <v>1450.69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>112956.16</v>
+        <v>108305.55</v>
       </c>
       <c r="C77" t="n">
-        <v>113684.82</v>
+        <v>109356.37</v>
       </c>
       <c r="D77" t="n">
-        <v>728.66</v>
+        <v>1050.83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>110055.3</v>
+        <v>109556.16</v>
       </c>
       <c r="C78" t="n">
-        <v>111563.97</v>
+        <v>108657.19</v>
       </c>
       <c r="D78" t="n">
-        <v>1508.66</v>
+        <v>-898.97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>108305.55</v>
+        <v>110064.02</v>
       </c>
       <c r="C79" t="n">
-        <v>109423.5</v>
+        <v>109404.09</v>
       </c>
       <c r="D79" t="n">
-        <v>1117.95</v>
+        <v>-659.92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>109556.16</v>
+        <v>110639.62</v>
       </c>
       <c r="C80" t="n">
-        <v>108723.52</v>
+        <v>110203.92</v>
       </c>
       <c r="D80" t="n">
-        <v>-832.65</v>
+        <v>-435.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>110064.02</v>
+        <v>106547.52</v>
       </c>
       <c r="C81" t="n">
-        <v>109439.25</v>
+        <v>109187.45</v>
       </c>
       <c r="D81" t="n">
-        <v>-624.76</v>
+        <v>2639.93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>110639.62</v>
+        <v>101590.52</v>
       </c>
       <c r="C82" t="n">
-        <v>110221.64</v>
+        <v>105015.73</v>
       </c>
       <c r="D82" t="n">
-        <v>-417.98</v>
+        <v>3425.21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>106547.52</v>
+        <v>103891.84</v>
       </c>
       <c r="C83" t="n">
-        <v>109225.62</v>
+        <v>102588.28</v>
       </c>
       <c r="D83" t="n">
-        <v>2678.1</v>
+        <v>-1303.56</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101590.52</v>
+        <v>101301.29</v>
       </c>
       <c r="C84" t="n">
-        <v>105084.91</v>
+        <v>102608.71</v>
       </c>
       <c r="D84" t="n">
-        <v>3494.39</v>
+        <v>1307.42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>103891.84</v>
+        <v>103372.41</v>
       </c>
       <c r="C85" t="n">
-        <v>102691.98</v>
+        <v>102000.86</v>
       </c>
       <c r="D85" t="n">
-        <v>-1199.86</v>
+        <v>-1371.55</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>101301.29</v>
+        <v>102282.12</v>
       </c>
       <c r="C86" t="n">
-        <v>102673.23</v>
+        <v>102608.43</v>
       </c>
       <c r="D86" t="n">
-        <v>1371.94</v>
+        <v>326.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>103372.41</v>
+        <v>104719.64</v>
       </c>
       <c r="C87" t="n">
-        <v>102036.49</v>
+        <v>103837.8</v>
       </c>
       <c r="D87" t="n">
-        <v>-1335.91</v>
+        <v>-881.84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>102282.12</v>
+        <v>105996.59</v>
       </c>
       <c r="C88" t="n">
-        <v>102645.03</v>
+        <v>105363.98</v>
       </c>
       <c r="D88" t="n">
-        <v>362.91</v>
+        <v>-632.62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>104719.64</v>
+        <v>102997.47</v>
       </c>
       <c r="C89" t="n">
-        <v>103848.67</v>
+        <v>104693.7</v>
       </c>
       <c r="D89" t="n">
-        <v>-870.97</v>
+        <v>1696.23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>105996.59</v>
+        <v>101663.19</v>
       </c>
       <c r="C90" t="n">
-        <v>105383.94</v>
+        <v>102381.17</v>
       </c>
       <c r="D90" t="n">
-        <v>-612.65</v>
+        <v>717.98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>102997.47</v>
+        <v>99697.49000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>104716.97</v>
+        <v>100600.16</v>
       </c>
       <c r="D91" t="n">
-        <v>1719.5</v>
+        <v>902.67</v>
       </c>
     </row>
   </sheetData>
